--- a/biology/Botanique/People's_Park/People's_Park.xlsx
+++ b/biology/Botanique/People's_Park/People's_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">  
-People's Park, ou parc du peuple en français, est un parc situé à Berkeley, en Californie, à la sortie de Telegraph Avenue, bordé par les rues Haste et Bowditch et le chemin Dwight, près de l'université de Californie, Berkeley. Le parc a été créé au cours de la période d'activisme politique radical de la fin des années 1960[1],[2],[3],[4].
-Le quartier Sud (Southside)  a été le théâtre d'un affrontement majeur entre des manifestants et la police en mai 1969. Une peinture murale à proximité du parc, peint par l'artiste O'Brien Thiele et l'avocat-artiste Osha Neumann de Berkeley, représente le fusillage de James Rector, un étudiant qui mourut des blessures provoquées par un coup de fusil tiré par la police le 15 mai 1969[5].
+People's Park, ou parc du peuple en français, est un parc situé à Berkeley, en Californie, à la sortie de Telegraph Avenue, bordé par les rues Haste et Bowditch et le chemin Dwight, près de l'université de Californie, Berkeley. Le parc a été créé au cours de la période d'activisme politique radical de la fin des années 1960.
+Le quartier Sud (Southside)  a été le théâtre d'un affrontement majeur entre des manifestants et la police en mai 1969. Une peinture murale à proximité du parc, peint par l'artiste O'Brien Thiele et l'avocat-artiste Osha Neumann de Berkeley, représente le fusillage de James Rector, un étudiant qui mourut des blessures provoquées par un coup de fusil tiré par la police le 15 mai 1969.
 Alors que légalement le terrain est la propriété de l'université de Californie, le parc du peuple a fonctionné depuis le début des années 1970 comme un parc public gratuit. Bien qu'ouvert à tous, il sert surtout d'abris de jour à la nombreuse population de sans-abris de Berkeley qui sont nourris par l'association East Bay Food Not Bombs (Aliments de l'Est de la Baie, Pas de Bombes). Les voisins résidents, et ceux qui tentent d'utiliser le parc de loisirs, entre parfois en conflit avec les personnes sans-abri.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,17 +526,19 @@
           <t>Début de l'histoire avant mai 1969</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1956, les Régents de l'Université de Californie ont alloué un terrain de 2,8 acres (11 331,197976 m2) supportant des habitations, pour le développement futur de logements d'étudiants, de parkings et de bureaux dans le cadre du Plan de développement à long terme de l'université. À l'époque, les fonds publics manquaient pour acheter le terrain, et le plan a été mis en veilleuse jusqu'en juin 1967, lorsque l'université reçut 1,3 million de dollars pour acquérir le terrain à travers la procédure d'Expropriation pour cause d'intérêt public. L'objectif à court terme était de créer des terrains de sport, les logements étudiants, restant objectif à plus long terme[6],[7].
-Les Bulldozers sont arrivés en février 1968 et ont commencé la démolition des habitations. Mais l'université a manqué de fonds de développement, laissant pendant 14 mois le terrain partiellement encombré de débris de démolition et de gravats. Le site boueux est devenu une décharge d'épave de voitures[8].
-Le 13 avril 1969, les commerçants locaux et les résidents ont tenu une réunion pour discuter des utilisations possibles pour le site abandonné. À l'époque, l'étudiant militant Wendy Schlesinger et Michael Delacour (un ancien employé d'une entreprise travaillant pour la défense, qui était devenu un anti-guerre, militant[9]) s'étaient attachés à l'endroit qui leur avait servi de lieu de rencontres amoureuses secrètes. Ils présentèrent un plan pour transformer en parc public le terrain de l'université. Ce plan fut approuvé par les participants, mais pas par l'université. Stew Albert, cofondateur de la Yippie Partie, a accepté d'écrire un article pour le journal local de contre-culture, le Berkeley Barb, sur le thème du parc, en particulier pour appeler à l'aide les résidents locaux.
-Michael Delacour a déclaré, « Nous voulions un espace de prise de parole libre qui ne soit pas contrôlé comme la Place Sproul [la place à l'entrée sud de l'université de Berkeley]. Cela ferait un autre endroit pour s'organiser, un autre lieu de rassemblement. Le parc était secondaire. »[10] Le micro d'expression libre (Free Speech microphone) de l'université était ouvert à tous les étudiants, sans réelles restrictions sur la parole. La construction du parc impliqua un grand nombre des mêmes personnes et des politiques impliqués en 1964 dans le Free Speech Movement[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1956, les Régents de l'Université de Californie ont alloué un terrain de 2,8 acres (11 331,197976 m2) supportant des habitations, pour le développement futur de logements d'étudiants, de parkings et de bureaux dans le cadre du Plan de développement à long terme de l'université. À l'époque, les fonds publics manquaient pour acheter le terrain, et le plan a été mis en veilleuse jusqu'en juin 1967, lorsque l'université reçut 1,3 million de dollars pour acquérir le terrain à travers la procédure d'Expropriation pour cause d'intérêt public. L'objectif à court terme était de créer des terrains de sport, les logements étudiants, restant objectif à plus long terme,.
+Les Bulldozers sont arrivés en février 1968 et ont commencé la démolition des habitations. Mais l'université a manqué de fonds de développement, laissant pendant 14 mois le terrain partiellement encombré de débris de démolition et de gravats. Le site boueux est devenu une décharge d'épave de voitures.
+Le 13 avril 1969, les commerçants locaux et les résidents ont tenu une réunion pour discuter des utilisations possibles pour le site abandonné. À l'époque, l'étudiant militant Wendy Schlesinger et Michael Delacour (un ancien employé d'une entreprise travaillant pour la défense, qui était devenu un anti-guerre, militant) s'étaient attachés à l'endroit qui leur avait servi de lieu de rencontres amoureuses secrètes. Ils présentèrent un plan pour transformer en parc public le terrain de l'université. Ce plan fut approuvé par les participants, mais pas par l'université. Stew Albert, cofondateur de la Yippie Partie, a accepté d'écrire un article pour le journal local de contre-culture, le Berkeley Barb, sur le thème du parc, en particulier pour appeler à l'aide les résidents locaux.
+Michael Delacour a déclaré, « Nous voulions un espace de prise de parole libre qui ne soit pas contrôlé comme la Place Sproul [la place à l'entrée sud de l'université de Berkeley]. Cela ferait un autre endroit pour s'organiser, un autre lieu de rassemblement. Le parc était secondaire. » Le micro d'expression libre (Free Speech microphone) de l'université était ouvert à tous les étudiants, sans réelles restrictions sur la parole. La construction du parc impliqua un grand nombre des mêmes personnes et des politiques impliqués en 1964 dans le Free Speech Movement.
 Le 18 avril 1969, l'article d'Albert parut dans le Berkeley Barb, et le dimanche, 20 avril, plus de 100 personnes arrivèrent sur le site pour commencer la construction du parc. L'architecte paysagiste local Jon Lire et de nombreuses autres personnes apportèrent des arbres, des fleurs, des arbustes et du gazon qui furent nourries gratuitement pendant le développement communautaire du parc. Finalement, environ 1 000 personnes ont participé, la plupart en faisant des dons d'argent et de matériel. Le parc fut pour l'essentiel terminé à la mi-mai.
-Frank Bardacke, un participant au développement du parc, déclara dans un documentaire intitulé Berkeley in the Sixties (Berkeley dans les années 60), « Un groupe de personnes s'appropria un terrain appartenant à l'université de Californie utilisé comme parking pour le transformer en parc et déclarèrent alors : Nous utilisons mieux ce terrain que vous et de ce fait il nous appartient[11]. »
+Frank Bardacke, un participant au développement du parc, déclara dans un documentaire intitulé Berkeley in the Sixties (Berkeley dans les années 60), « Un groupe de personnes s'appropria un terrain appartenant à l'université de Californie utilisé comme parking pour le transformer en parc et déclarèrent alors : Nous utilisons mieux ce terrain que vous et de ce fait il nous appartient. »
 Le 28 avril 1969, le vice-chancelier de Berkeley, Earl Cheit a publié les plans de construction d'un terrain de sport sur le site. Ce plan était en conflit avec les plans du Parc du Peuple proposés des militants. Cependant, Cheit a déclaré qu'il ne prendrait aucune décision sans en avertir les constructeurs du parc.
 Deux jours plus tard, le 30 avril, Cheit alloua plus d'un quart de la parcelle aux constructeurs du parc.
-Le 6 mai, la chancelière Heyns a rencontré des membres du Comité pour le Parc du Peuple, des représentants des étudiants et du corps professoral de la faculté de Design Environnemental. Il a fixé un délai de trois semaines à ce groupe pour produire un plan pour le parc, et il a réitéré sa promesse qu'il n'y aurait pas de construction entreprise sans avertissement préalable[12].
+Le 6 mai, la chancelière Heyns a rencontré des membres du Comité pour le Parc du Peuple, des représentants des étudiants et du corps professoral de la faculté de Design Environnemental. Il a fixé un délai de trois semaines à ce groupe pour produire un plan pour le parc, et il a réitéré sa promesse qu'il n'y aurait pas de construction entreprise sans avertissement préalable.
 Le 13 mai, le chancelier Roger W. Heyns informa les media par un communiqué de presse que l'université allait clôturer la parcelle et commencer les travaux.
 </t>
         </is>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Le « jeudi sanglant »</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 15 mai 1969, à la suite d'une manifestation, une grave émeute éclate entre la police et les manifestants dans le People's Park. Elle est nommée « Jeudi sanglant », ou « Bloody Thursday » en anglais.
 </t>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Les années 1970</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la marche pacifique en faveur du Parc du Peuple du 30 mai 1969, l'université a décidé de garder la clôture grillagée de 2,4 mètres de haut et de maintenir une garde 24 heures sur 24 sur le site. Le 20 juin, les Régents de l'Université de Californie ont voté la transformation du parc en terrain de football et un parking de stationnement.
 En mars 1971, quand il a semblé que la construction de l'aire de stationnement et du terrain de football pourraient démarrer, un autre manifestation pour le Parc du Peuple eu lieu, résultant en 44 arrestations.
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>L'Annexe du Parc du peuple /Parc Ohlone</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'immédiat après-mai 1969, et conformément à leur objectif « Faisons éclore un millier de Parcs », les militants du Parc du Peuple ont commencé à jardiner une bande de terre de deux pâtés de maisons le long appelée le « Couloir Hearst » situé à côté de Hearst Avenue, juste au nord-ouest du campus de l'université. Le « Couloir Hearst » était une bande de terre le long du côte nord de Hearst Avenue qui avait été laissé en grande partie à l'abandon après la démolition les maisons destinée à faciliter la réalisation d'une ligne de métro pour le réseau du Bay Area Rapid Transit (BART).
 Pendant les années 1970, les résidents locaux, en particulier George Garvin, poursuivirent le jardinage et le développement de ce terrain, qui est devenu connu sous le nom de « Annexe du Parc du Peuple ». Plus tard, d'autres bénévoles ont donné du temps et de l'énergie à l'Annexe, dirigés par David Axelrod et Charlotte Pyle, jardiniers urbains qui ont été parmi les premiers organisateurs du Projet Parc du Peuple/ Forum des Plantes Indigènes.
@@ -635,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,13 +673,15 @@
           <t>Prolongement historique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a vu se multiplier les projets au fil des décennies. La « Free Box » a fonctionné pendant de nombreuses années comme dépôt de vêtements, jusqu'à ce qu'elle soit détruite par un incendie criminel en 1995. Les tentatives suivantes pour la reconstruire ont été démantelées par la police de l'université.
 L'université a construit des terrains de volleyball à l'extrémité sud du parc en 1991. Des protestataires ont manifesté contre le projet, s'installant parfois sur les terrains de volleyball pour empêcher leur utilisation. Les cours ont finalement été démantelés en 1997.
-En 2011, le Parc du Peuple a été témoin d'une nouvelle vague de manifestations, connues sous le nom de « occupation d'arbres ». Elle consistaient en une série de « gardiens d'arbres » individuels qui occupaient une plate-forme en bois dans l'un des arbres du Parc du Peuple. Les manifestations furent perturbées par des interruptions et des altercations brutales. Un manifestant a été arrêté[13], un autre est tombé de l'arbre pendant son sommeil[14]. Mais malgré les transitions et les chevauchements des programmes politiques, tels que le couvre-feu de 10 heures[15] et les projets de développement de l'université, les manifestations ont duré tout au long de l'automne 2011. Zachary RunningWolf, un militant de Berkeley et plusieurs fois candidat à la mairie, a également soutenu les occupations d'arbres. Il a activement parlé aux médias des manifestants et des causes qu'ils défendaient. RunningWolf a affirmé que le motif central de la manifestations a été de démontrer que « la pauvreté n'est pas un crime. »
-Malgré les protestations, fin 2011, l'UC Berkeley a détruit au bulldozer l'extrémité ouest du Parc du Peuple, détruisant le jardin communautaire vieux de plusieurs décennies et abattant des arbres matures dans ce qu'un communiqué de presse publié par l'université décrit comme un effort visant à fournir aux élèves et à la communauté des conditions plus sûres et plus saines[16],[17]. Cela a provoqué la colère de certains étudiants et résidents de Berkeley, qui ont noté que le bulldozer avait opéré pendant les vacances d'hiver, alors que de nombreux étudiants étaient absents du campus, et que l'opération avait suivi l'intervention de la police soutenue par l'administration à Occupy Cal moins de deux mois auparavant.
-People's Park fait depuis longtemps l’objet de controverses entre ceux qui le voient comme un mémorial du mouvement de la liberté d’expression et un refuge pour les pauvres et ceux qui le décrivent comme un lieu criminel et hostile aux familles. Bien que le parc dispose de toilettes publiques, de jardins et d'une aire de jeux, de nombreux résidents ne le voient pas comme un lieu accueillant, citant la consommation de drogue et un taux de criminalité élevé[18]. Un article du San Francisco Chronicle le 13 janvier 2008, parle du Parc du Peuple comme « une plaque tournante triste et un peu menaçant pour les toxicomanes et les sans-abri. » Le même article citait des habitants et des partisans du parc, affirmant qu'il était « parfaitement sûr, propre et accessible »[19]. En Mai 2018, UC Berkeley a rapporté que la police du campus avait été appelée 1 585 fois au Parc du Peuple au cours de l'année précédente[20]. L'Université a aussi dit qu'il y avait eu 10 102 actes criminels dans le parc entre 2012 et 2017[21].
+En 2011, le Parc du Peuple a été témoin d'une nouvelle vague de manifestations, connues sous le nom de « occupation d'arbres ». Elle consistaient en une série de « gardiens d'arbres » individuels qui occupaient une plate-forme en bois dans l'un des arbres du Parc du Peuple. Les manifestations furent perturbées par des interruptions et des altercations brutales. Un manifestant a été arrêté, un autre est tombé de l'arbre pendant son sommeil. Mais malgré les transitions et les chevauchements des programmes politiques, tels que le couvre-feu de 10 heures et les projets de développement de l'université, les manifestations ont duré tout au long de l'automne 2011. Zachary RunningWolf, un militant de Berkeley et plusieurs fois candidat à la mairie, a également soutenu les occupations d'arbres. Il a activement parlé aux médias des manifestants et des causes qu'ils défendaient. RunningWolf a affirmé que le motif central de la manifestations a été de démontrer que « la pauvreté n'est pas un crime. »
+Malgré les protestations, fin 2011, l'UC Berkeley a détruit au bulldozer l'extrémité ouest du Parc du Peuple, détruisant le jardin communautaire vieux de plusieurs décennies et abattant des arbres matures dans ce qu'un communiqué de presse publié par l'université décrit comme un effort visant à fournir aux élèves et à la communauté des conditions plus sûres et plus saines,. Cela a provoqué la colère de certains étudiants et résidents de Berkeley, qui ont noté que le bulldozer avait opéré pendant les vacances d'hiver, alors que de nombreux étudiants étaient absents du campus, et que l'opération avait suivi l'intervention de la police soutenue par l'administration à Occupy Cal moins de deux mois auparavant.
+People's Park fait depuis longtemps l’objet de controverses entre ceux qui le voient comme un mémorial du mouvement de la liberté d’expression et un refuge pour les pauvres et ceux qui le décrivent comme un lieu criminel et hostile aux familles. Bien que le parc dispose de toilettes publiques, de jardins et d'une aire de jeux, de nombreux résidents ne le voient pas comme un lieu accueillant, citant la consommation de drogue et un taux de criminalité élevé. Un article du San Francisco Chronicle le 13 janvier 2008, parle du Parc du Peuple comme « une plaque tournante triste et un peu menaçant pour les toxicomanes et les sans-abri. » Le même article citait des habitants et des partisans du parc, affirmant qu'il était « parfaitement sûr, propre et accessible ». En Mai 2018, UC Berkeley a rapporté que la police du campus avait été appelée 1 585 fois au Parc du Peuple au cours de l'année précédente. L'Université a aussi dit qu'il y avait eu 10 102 actes criminels dans le parc entre 2012 et 2017.
 </t>
         </is>
       </c>
@@ -670,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>People%27s_Park</t>
+          <t>People's_Park</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -688,10 +710,12 @@
           <t>Projet de développement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, l'université de Berkeley a dévoilé un plan pour le Parc du Peuple, qui comprendrait la construction de logements pour 1 000 élèves, de soutien au logement pour les sans-abris ou d'anciens combattants et un monument honorant l'histoire et l'héritage du parc[22],[23].
-Les critiques affirment que toutes les tentatives pour construire des logements pour les étudiants vont « inévitablement se heurter à une violence incandescente. » Ils vont plus loin en le décrivant comme « un spectacle de merde qui fera ressembler les émeutes de 1969 et 1991 à une soirée d'après-midi de thé et de biscuits »[24]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, l'université de Berkeley a dévoilé un plan pour le Parc du Peuple, qui comprendrait la construction de logements pour 1 000 élèves, de soutien au logement pour les sans-abris ou d'anciens combattants et un monument honorant l'histoire et l'héritage du parc,.
+Les critiques affirment que toutes les tentatives pour construire des logements pour les étudiants vont « inévitablement se heurter à une violence incandescente. » Ils vont plus loin en le décrivant comme « un spectacle de merde qui fera ressembler les émeutes de 1969 et 1991 à une soirée d'après-midi de thé et de biscuits »
 </t>
         </is>
       </c>
